--- a/mini project/results.xlsx
+++ b/mini project/results.xlsx
@@ -423,107 +423,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>99004521</v>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Varanasi</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Madurai</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Ayodhya</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Ujjain</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Kannauj</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Hampi</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Gwalior</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Thanjavur</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Pushkar</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Rakhigarhi</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Kalibangan</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Lothal</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Dholavira</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Surkotada</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dwarka</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Sanchi</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Muziris</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nagarjunakonda </t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Vijayanagar</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Poompuhar</t>
-        </is>
+        <v>99004515</v>
+      </c>
+      <c r="B1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1" t="n">
+        <v>70</v>
+      </c>
+      <c r="D1" t="n">
+        <v>80</v>
+      </c>
+      <c r="E1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F1" t="n">
+        <v>80</v>
+      </c>
+      <c r="G1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H1" t="n">
+        <v>60</v>
+      </c>
+      <c r="I1" t="n">
+        <v>50</v>
+      </c>
+      <c r="J1" t="n">
+        <v>40</v>
+      </c>
+      <c r="K1" t="n">
+        <v>30</v>
+      </c>
+      <c r="L1" t="n">
+        <v>20</v>
+      </c>
+      <c r="M1" t="n">
+        <v>10</v>
+      </c>
+      <c r="N1" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1" t="n">
+        <v>30</v>
+      </c>
+      <c r="P1" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>50</v>
+      </c>
+      <c r="R1" t="n">
+        <v>60</v>
+      </c>
+      <c r="S1" t="n">
+        <v>70</v>
+      </c>
+      <c r="T1" t="n">
+        <v>80</v>
+      </c>
+      <c r="U1" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/mini project/results.xlsx
+++ b/mini project/results.xlsx
@@ -423,67 +423,107 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>99004515</v>
-      </c>
-      <c r="B1" t="n">
-        <v>60</v>
-      </c>
-      <c r="C1" t="n">
-        <v>70</v>
-      </c>
-      <c r="D1" t="n">
-        <v>80</v>
-      </c>
-      <c r="E1" t="n">
-        <v>90</v>
-      </c>
-      <c r="F1" t="n">
-        <v>80</v>
-      </c>
-      <c r="G1" t="n">
-        <v>70</v>
-      </c>
-      <c r="H1" t="n">
-        <v>60</v>
-      </c>
-      <c r="I1" t="n">
-        <v>50</v>
-      </c>
-      <c r="J1" t="n">
-        <v>40</v>
-      </c>
-      <c r="K1" t="n">
-        <v>30</v>
-      </c>
-      <c r="L1" t="n">
-        <v>20</v>
-      </c>
-      <c r="M1" t="n">
-        <v>10</v>
-      </c>
-      <c r="N1" t="n">
-        <v>20</v>
-      </c>
-      <c r="O1" t="n">
-        <v>30</v>
-      </c>
-      <c r="P1" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>50</v>
-      </c>
-      <c r="R1" t="n">
-        <v>60</v>
-      </c>
-      <c r="S1" t="n">
-        <v>70</v>
-      </c>
-      <c r="T1" t="n">
-        <v>80</v>
-      </c>
-      <c r="U1" t="n">
-        <v>90</v>
+        <v>99004520</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>archery</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fishing</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>sky diving</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> table tennis</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sketching </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>origami</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>star gazing</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>photography</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>video games</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>wood carving</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>basketball</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>golf</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>running</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>soccer</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>volleyball</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>swimming</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>rugby</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>tennis</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>gardening</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>horse racing</t>
+        </is>
       </c>
     </row>
   </sheetData>
